--- a/DownloadDataForDK/ModelData/tech2modelTech.xlsx
+++ b/DownloadDataForDK/ModelData/tech2modelTech.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,31 +448,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BP_Biogas</t>
+          <t>BH_Biogas</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BP</t>
+          <t>standard_H</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IndustryH_Biogas</t>
+          <t>BP_Biogas</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>standard_H</t>
+          <t>BP</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BH_Biomass</t>
+          <t>IndustryH_Biogas</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -484,19 +484,19 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BP_Biomass</t>
+          <t>BH_Biomass</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BP</t>
+          <t>standard_H</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BP_Coal</t>
+          <t>BP_Biomass</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -508,43 +508,43 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BH_Natgas</t>
+          <t>BP_Coal</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>standard_H</t>
+          <t>BP</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BP_Natgas</t>
+          <t>BH_Natgas</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BP</t>
+          <t>standard_H</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IndustryH_Natgas</t>
+          <t>BP_Natgas</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>standard_H</t>
+          <t>BP</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BH_Oil</t>
+          <t>IndustryH_Natgas</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -556,31 +556,31 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BP_Oil</t>
+          <t>BH_Oil</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BP</t>
+          <t>standard_H</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>IndustryH_Oil</t>
+          <t>BP_Oil</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>standard_H</t>
+          <t>BP</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BH_Waste</t>
+          <t>IndustryH_Oil</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -592,31 +592,31 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BP_Waste</t>
+          <t>BH_Waste</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BP</t>
+          <t>standard_H</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EP</t>
+          <t>BP_Waste</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HP</t>
+          <t>BP</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HPstandard</t>
+          <t>EP</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>HPsurplusheat</t>
+          <t>HPstandard</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IH</t>
+          <t>HPsurplusheat</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -652,19 +652,19 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IndustryH</t>
+          <t>IH</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>standard_H</t>
+          <t>HP</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SH</t>
+          <t>IndustryH</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BH_Biogas</t>
+          <t>SH</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CD_Natgas</t>
+          <t>CD_Coal</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>IndustryE_Natgas</t>
+          <t>CD_Natgas</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CD_Oil</t>
+          <t>IndustryE_Natgas</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>IndustryE_Oil</t>
+          <t>CD_Oil</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PV</t>
+          <t>IndustryE_Oil</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ROR</t>
+          <t>PV</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>WL</t>
+          <t>ROR</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>WS</t>
+          <t>WL</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -844,82 +844,10 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CD_Coal</t>
+          <t>WS</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
-        <is>
-          <t>standard_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>DK1_ImportFrom_DELU</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>standard_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>DK1_ImportFrom_NL</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>standard_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>DK1_ImportFrom_NO2</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>standard_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>DK1_ImportFrom_SE3</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>standard_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>DK2_ImportFrom_DELU</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>standard_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>DK2_ImportFrom_SE4</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
         <is>
           <t>standard_E</t>
         </is>

--- a/DownloadDataForDK/ModelData/tech2modelTech.xlsx
+++ b/DownloadDataForDK/ModelData/tech2modelTech.xlsx
@@ -508,55 +508,55 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BP_Coal</t>
+          <t>IndustryH_Biomass</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BP</t>
+          <t>standard_H</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BH_Natgas</t>
+          <t>BP_Coal</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>standard_H</t>
+          <t>BP</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BP_Natgas</t>
+          <t>BH_Natgas</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BP</t>
+          <t>standard_H</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IndustryH_Natgas</t>
+          <t>BP_Natgas</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>standard_H</t>
+          <t>BP</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BH_Oil</t>
+          <t>IndustryH_Natgas</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -568,31 +568,31 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BP_Oil</t>
+          <t>BH_Oil</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BP</t>
+          <t>standard_H</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IndustryH_Oil</t>
+          <t>BP_Oil</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>standard_H</t>
+          <t>BP</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BH_Waste</t>
+          <t>IndustryH_Oil</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -604,31 +604,31 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BP_Waste</t>
+          <t>BH_Waste</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BP</t>
+          <t>standard_H</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>EP</t>
+          <t>BP_Waste</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>HP</t>
+          <t>BP</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>HPstandard</t>
+          <t>EP</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -640,19 +640,19 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>HPsurplusheat</t>
+          <t>GT</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>HP</t>
+          <t>standard_H</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IH</t>
+          <t>HPstandard</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -664,31 +664,31 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>IndustryH</t>
+          <t>HPsurplusheat</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>standard_H</t>
+          <t>HP</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SH</t>
+          <t>IH</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>standard_H</t>
+          <t>HP</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>IndustryH_Biomass</t>
+          <t>IndustryH</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>GT</t>
+          <t>SH</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
